--- a/WordCount Test Cases.xlsx
+++ b/WordCount Test Cases.xlsx
@@ -5,14 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\WordCount\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Interface Suite" sheetId="1" r:id="rId1"/>
+    <sheet name="Portability Suite" sheetId="2" r:id="rId2"/>
+    <sheet name="Functional Suite" sheetId="3" r:id="rId3"/>
+    <sheet name="IO Suite" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="81">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -104,14 +107,7 @@
     <t>EI 2</t>
   </si>
   <si>
-    <t>1) Open WordCount.py by preferred method.
-2) Enter any alphanumeric string.</t>
-  </si>
-  <si>
     <t>Program receives input via keyboard, outputs via display.</t>
-  </si>
-  <si>
-    <t>The terminal should intake the typed string and display a result.</t>
   </si>
   <si>
     <t>WC_Interfaces_KeybDisplay</t>
@@ -122,6 +118,179 @@
   </si>
   <si>
     <t>F 1</t>
+  </si>
+  <si>
+    <t>Bentley Kang</t>
+  </si>
+  <si>
+    <t>WC_Portability_Windows</t>
+  </si>
+  <si>
+    <t>WC_Portability_Mac</t>
+  </si>
+  <si>
+    <t>WordCount_Portability_USB</t>
+  </si>
+  <si>
+    <t>Program runs on Windows 7 OS.</t>
+  </si>
+  <si>
+    <t>1) Double click WordCount.py
+2) Enter "done"</t>
+  </si>
+  <si>
+    <t>The program opens after clicking and closes after the command.</t>
+  </si>
+  <si>
+    <t>Program runs on Mac OS 9.3</t>
+  </si>
+  <si>
+    <t>NF 6</t>
+  </si>
+  <si>
+    <t>Python 3.5.1, Mac OS 9.3</t>
+  </si>
+  <si>
+    <t>Program can be run directly from USB, given file location constraints.</t>
+  </si>
+  <si>
+    <t>1) Insert the WordCount USB into computer
+2) Place a text file on the USB in the same directory as WordCount.py
+3) Double click WordCount.py
+4) Enter the text file's name</t>
+  </si>
+  <si>
+    <t>EI 4</t>
+  </si>
+  <si>
+    <t>WordCount_Portability_Email</t>
+  </si>
+  <si>
+    <t>Program distributed via e-mail can be run after installation.</t>
+  </si>
+  <si>
+    <t>In possession of WordCount USB, WordCount.py NOT present on system.</t>
+  </si>
+  <si>
+    <t>In possession of a WordCount distribution e-mail, WordCount.py NOT present on system.</t>
+  </si>
+  <si>
+    <t>1) Open WordCount distribution e-mail and download attachment to any directory
+2) Place a text file on the USB in the same directory as WordCount.py
+3) Double click WordCount.py
+4) Enter the text file's name</t>
+  </si>
+  <si>
+    <t>The program outputs the average words per sentence.</t>
+  </si>
+  <si>
+    <t>The terminal intakes the typed string and display a result.</t>
+  </si>
+  <si>
+    <t>WC_Filename_Input</t>
+  </si>
+  <si>
+    <t>Program reads off indicated file and outputs.</t>
+  </si>
+  <si>
+    <t>WordCount.py present on system. Any two test files in the same directory as WordCount.py</t>
+  </si>
+  <si>
+    <t>1) Double click WordCount.py
+2) Enter the filename of one of the test files.
+3) Check the resulting output against the test file's calculated metrics.</t>
+  </si>
+  <si>
+    <t>The program outputs the data for the selected file.</t>
+  </si>
+  <si>
+    <t>F 2</t>
+  </si>
+  <si>
+    <t>Program only counts words longer than 3 letters.</t>
+  </si>
+  <si>
+    <t>WordCount.py present on system. Word size test files present in the same directory as WordCount.py</t>
+  </si>
+  <si>
+    <t>1) Double click WordCount.py
+2) Enter the filename of one of the test files.
+3) Check the resulting output against the test file's calculated metrics.
+4) Repeat process for the other two test files.</t>
+  </si>
+  <si>
+    <t>The program only counts words longer than 3 leters.</t>
+  </si>
+  <si>
+    <t>WC_FileProcessing_WordLength</t>
+  </si>
+  <si>
+    <t>Program only counts sentences ended by defined punctuation.</t>
+  </si>
+  <si>
+    <t>WordCount.py present on system. Punctuation test files present in the same directory as WordCount.py</t>
+  </si>
+  <si>
+    <t>The program only counts sentences ended by defined punctuation.</t>
+  </si>
+  <si>
+    <t>Program calculates average accurately.</t>
+  </si>
+  <si>
+    <t>F 3</t>
+  </si>
+  <si>
+    <t>WC_FileProcessing_CalculationSingle</t>
+  </si>
+  <si>
+    <t>WordCount.py present on system. Calculation test files present in the same directory as WordCount.py</t>
+  </si>
+  <si>
+    <t>Program calculates average as the mean.</t>
+  </si>
+  <si>
+    <t>WC_FileProcessing_CalculationBatch</t>
+  </si>
+  <si>
+    <t>1) Double click WordCount.py
+2) Enter "batch"
+3) Enter the filename of each test file in sequence
+4) Check the resulting output against the calculated batch metrics</t>
+  </si>
+  <si>
+    <t>WC_InputOutput_ErrorHandling</t>
+  </si>
+  <si>
+    <t>Program handles errors per spec.</t>
+  </si>
+  <si>
+    <t>F 4</t>
+  </si>
+  <si>
+    <t>1) Double click WordCount.py
+2) Enter any input other than "done" "batch" or a local filename.</t>
+  </si>
+  <si>
+    <t>The program outputs a user-friendly error message.</t>
+  </si>
+  <si>
+    <t>WC_InputOutput_EndofProgram</t>
+  </si>
+  <si>
+    <t>Program ends cleanly when done.</t>
+  </si>
+  <si>
+    <t>F 5</t>
+  </si>
+  <si>
+    <t>WordCount.py present on system. Any test file present in same directory.</t>
+  </si>
+  <si>
+    <t>1) Double click WordCount.py
+2) Enter the filename of the test file.</t>
+  </si>
+  <si>
+    <t>Program ends after output.</t>
   </si>
 </sst>
 </file>
@@ -546,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -600,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -640,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -660,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="3">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -674,13 +843,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -700,10 +869,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -720,10 +889,10 @@
         <v>8</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -734,13 +903,13 @@
         <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -754,13 +923,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -851,6 +1020,1132 @@
       <c r="H17" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="6" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="9" width="39.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42551</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="6" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="9" width="39.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42551</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>42551</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>42551</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="6" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="9" width="39.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42551</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>42551</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
   </sheetData>

--- a/WordCount Test Cases.xlsx
+++ b/WordCount Test Cases.xlsx
@@ -1895,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,8 +1911,8 @@
     <col min="8" max="9" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,10 +1925,8 @@
       <c r="F2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1941,10 +1939,8 @@
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1957,10 +1953,8 @@
       <c r="F4" s="4">
         <v>42551</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1973,10 +1967,8 @@
       <c r="F5" s="6">
         <v>3</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1989,10 +1981,8 @@
       <c r="F6" s="3">
         <v>3.2</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2005,10 +1995,8 @@
       <c r="F7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2021,10 +2009,8 @@
       <c r="F8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2037,10 +2023,8 @@
       <c r="F9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2053,10 +2037,8 @@
       <c r="F10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2069,10 +2051,8 @@
       <c r="F11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2081,10 +2061,8 @@
         <v>11</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2093,10 +2071,8 @@
         <v>12</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2105,10 +2081,8 @@
         <v>13</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
@@ -2117,10 +2091,8 @@
         <v>14</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2133,10 +2105,8 @@
       <c r="F16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
@@ -2145,8 +2115,6 @@
         <v>16</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
